--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP380"/>
+  <dimension ref="A1:BP381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.84</v>
@@ -5715,7 +5715,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.53</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.58</v>
@@ -10293,7 +10293,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR45" t="n">
         <v>1.6</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.21</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.74</v>
@@ -19013,7 +19013,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR85" t="n">
         <v>1.48</v>
@@ -22501,7 +22501,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR101" t="n">
         <v>1.46</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.84</v>
@@ -23591,7 +23591,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR106" t="n">
         <v>1.41</v>
@@ -27948,7 +27948,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.74</v>
@@ -28605,7 +28605,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR129" t="n">
         <v>1.77</v>
@@ -31439,7 +31439,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR142" t="n">
         <v>1.64</v>
@@ -32526,7 +32526,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.21</v>
@@ -34709,7 +34709,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR157" t="n">
         <v>1.75</v>
@@ -35796,7 +35796,7 @@
         <v>1.43</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.11</v>
@@ -40595,7 +40595,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR184" t="n">
         <v>1.58</v>
@@ -41682,7 +41682,7 @@
         <v>1.22</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.05</v>
@@ -44516,7 +44516,7 @@
         <v>1.9</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.84</v>
@@ -44737,7 +44737,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR203" t="n">
         <v>1.55</v>
@@ -50838,7 +50838,7 @@
         <v>1.58</v>
       </c>
       <c r="AP231" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.47</v>
@@ -51931,7 +51931,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR236" t="n">
         <v>1.31</v>
@@ -55198,7 +55198,7 @@
         <v>1</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.16</v>
@@ -56291,7 +56291,7 @@
         <v>1</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR256" t="n">
         <v>1.31</v>
@@ -59997,7 +59997,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR273" t="n">
         <v>1.62</v>
@@ -61520,7 +61520,7 @@
         <v>0.5</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ280" t="n">
         <v>0.37</v>
@@ -64136,7 +64136,7 @@
         <v>1.36</v>
       </c>
       <c r="AP292" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.21</v>
@@ -65665,7 +65665,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR299" t="n">
         <v>1.28</v>
@@ -68717,7 +68717,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR313" t="n">
         <v>1.37</v>
@@ -70458,7 +70458,7 @@
         <v>1.27</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ321" t="n">
         <v>1</v>
@@ -72856,7 +72856,7 @@
         <v>1.06</v>
       </c>
       <c r="AP332" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ332" t="n">
         <v>1.05</v>
@@ -74821,7 +74821,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ341" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR341" t="n">
         <v>1.46</v>
@@ -77219,7 +77219,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ352" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR352" t="n">
         <v>1.37</v>
@@ -77434,7 +77434,7 @@
         <v>0.82</v>
       </c>
       <c r="AP353" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AQ353" t="n">
         <v>0.89</v>
@@ -83399,6 +83399,224 @@
       </c>
       <c r="BP380" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3168644</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>45079.65625</v>
+      </c>
+      <c r="F381" t="n">
+        <v>38</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1</v>
+      </c>
+      <c r="K381" t="n">
+        <v>1</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>1</v>
+      </c>
+      <c r="N381" t="n">
+        <v>1</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q381" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R381" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S381" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="T381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U381" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V381" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W381" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X381" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ381" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA381" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB381" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC381" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE381" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF381" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG381" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH381" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ381" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK381" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL381" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM381" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN381" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO381" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP381" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
